--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2453026666666667</v>
+        <v>0.1033863333333333</v>
       </c>
       <c r="H2">
-        <v>0.735908</v>
+        <v>0.310159</v>
       </c>
       <c r="I2">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680672</v>
       </c>
       <c r="J2">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680673</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N2">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O2">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P2">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q2">
-        <v>1.875336842477778</v>
+        <v>1.245444084818</v>
       </c>
       <c r="R2">
-        <v>16.8780315823</v>
+        <v>11.208996763362</v>
       </c>
       <c r="S2">
-        <v>0.001995991529640503</v>
+        <v>0.004087126861227664</v>
       </c>
       <c r="T2">
-        <v>0.001995991529640503</v>
+        <v>0.004087126861227665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2453026666666667</v>
+        <v>0.1033863333333333</v>
       </c>
       <c r="H3">
-        <v>0.735908</v>
+        <v>0.310159</v>
       </c>
       <c r="I3">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680672</v>
       </c>
       <c r="J3">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P3">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q3">
-        <v>9.197121924480889</v>
+        <v>3.876259177743778</v>
       </c>
       <c r="R3">
-        <v>82.774097320328</v>
+        <v>34.886332599694</v>
       </c>
       <c r="S3">
-        <v>0.009788842752153389</v>
+        <v>0.01272057348825258</v>
       </c>
       <c r="T3">
-        <v>0.009788842752153389</v>
+        <v>0.01272057348825258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2453026666666667</v>
+        <v>0.1033863333333333</v>
       </c>
       <c r="H4">
-        <v>0.735908</v>
+        <v>0.310159</v>
       </c>
       <c r="I4">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680672</v>
       </c>
       <c r="J4">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680673</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N4">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q4">
-        <v>14.37750851387022</v>
+        <v>5.50403350489289</v>
       </c>
       <c r="R4">
-        <v>129.397576624832</v>
+        <v>49.536301544036</v>
       </c>
       <c r="S4">
-        <v>0.01530252302466523</v>
+        <v>0.01806237908001476</v>
       </c>
       <c r="T4">
-        <v>0.01530252302466522</v>
+        <v>0.01806237908001476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2453026666666667</v>
+        <v>0.1033863333333333</v>
       </c>
       <c r="H5">
-        <v>0.735908</v>
+        <v>0.310159</v>
       </c>
       <c r="I5">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680672</v>
       </c>
       <c r="J5">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680673</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N5">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q5">
-        <v>5.019851448124</v>
+        <v>1.580069047056</v>
       </c>
       <c r="R5">
-        <v>45.178663033116</v>
+        <v>14.220621423504</v>
       </c>
       <c r="S5">
-        <v>0.005342816684212745</v>
+        <v>0.005185252974051172</v>
       </c>
       <c r="T5">
-        <v>0.005342816684212744</v>
+        <v>0.005185252974051173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2453026666666667</v>
+        <v>0.1033863333333333</v>
       </c>
       <c r="H6">
-        <v>0.735908</v>
+        <v>0.310159</v>
       </c>
       <c r="I6">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680672</v>
       </c>
       <c r="J6">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680673</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N6">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q6">
-        <v>2.885904596383111</v>
+        <v>1.036830004168334</v>
       </c>
       <c r="R6">
-        <v>25.973141367448</v>
+        <v>9.331470037515</v>
       </c>
       <c r="S6">
-        <v>0.003071576795836101</v>
+        <v>0.003402525903989054</v>
       </c>
       <c r="T6">
-        <v>0.003071576795836101</v>
+        <v>0.003402525903989055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2453026666666667</v>
+        <v>0.1033863333333333</v>
       </c>
       <c r="H7">
-        <v>0.735908</v>
+        <v>0.310159</v>
       </c>
       <c r="I7">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680672</v>
       </c>
       <c r="J7">
-        <v>0.05115966912796758</v>
+        <v>0.06376879829680673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N7">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O7">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P7">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q7">
-        <v>14.71142071807111</v>
+        <v>6.18922312069689</v>
       </c>
       <c r="R7">
-        <v>132.40278646264</v>
+        <v>55.70300808627201</v>
       </c>
       <c r="S7">
-        <v>0.01565791834145961</v>
+        <v>0.02031093998927149</v>
       </c>
       <c r="T7">
-        <v>0.01565791834145961</v>
+        <v>0.0203109399892715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.760289</v>
       </c>
       <c r="I8">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="J8">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N8">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O8">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P8">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q8">
-        <v>4.485798245308334</v>
+        <v>7.068444000078001</v>
       </c>
       <c r="R8">
-        <v>40.372184207775</v>
+        <v>63.615996000702</v>
       </c>
       <c r="S8">
-        <v>0.004774403775634117</v>
+        <v>0.02319624597520492</v>
       </c>
       <c r="T8">
-        <v>0.004774403775634117</v>
+        <v>0.02319624597520492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.760289</v>
       </c>
       <c r="I9">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="J9">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P9">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q9">
         <v>21.99947895025267</v>
@@ -1013,10 +1013,10 @@
         <v>197.995310552274</v>
       </c>
       <c r="S9">
-        <v>0.02341487280929863</v>
+        <v>0.07219486000748858</v>
       </c>
       <c r="T9">
-        <v>0.02341487280929863</v>
+        <v>0.07219486000748858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.760289</v>
       </c>
       <c r="I10">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="J10">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N10">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q10">
-        <v>34.39094300425067</v>
+        <v>31.23781555361734</v>
       </c>
       <c r="R10">
-        <v>309.518487038256</v>
+        <v>281.140339982556</v>
       </c>
       <c r="S10">
-        <v>0.03660357402360748</v>
+        <v>0.1025119606665617</v>
       </c>
       <c r="T10">
-        <v>0.03660357402360748</v>
+        <v>0.1025119606665617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.760289</v>
       </c>
       <c r="I11">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="J11">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N11">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q11">
-        <v>12.007464636567</v>
+        <v>8.967588116976001</v>
       </c>
       <c r="R11">
-        <v>108.067181729103</v>
+        <v>80.708293052784</v>
       </c>
       <c r="S11">
-        <v>0.01277999619277976</v>
+        <v>0.0294285955669175</v>
       </c>
       <c r="T11">
-        <v>0.01277999619277976</v>
+        <v>0.0294285955669175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.760289</v>
       </c>
       <c r="I12">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="J12">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N12">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q12">
-        <v>6.903072280859333</v>
+        <v>5.884467164285001</v>
       </c>
       <c r="R12">
-        <v>62.127650527734</v>
+        <v>52.960204478565</v>
       </c>
       <c r="S12">
-        <v>0.007347199441187669</v>
+        <v>0.01931083386587843</v>
       </c>
       <c r="T12">
-        <v>0.007347199441187669</v>
+        <v>0.01931083386587843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.760289</v>
       </c>
       <c r="I13">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="J13">
-        <v>0.1223737244459918</v>
+        <v>0.3619160307619241</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N13">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O13">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P13">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q13">
-        <v>35.18965966451334</v>
+        <v>35.12656855970134</v>
       </c>
       <c r="R13">
-        <v>316.7069369806201</v>
+        <v>316.139117037312</v>
       </c>
       <c r="S13">
-        <v>0.03745367820348413</v>
+        <v>0.115273534679873</v>
       </c>
       <c r="T13">
-        <v>0.03745367820348413</v>
+        <v>0.115273534679873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2080076666666667</v>
+        <v>0.2771853333333333</v>
       </c>
       <c r="H14">
-        <v>0.624023</v>
+        <v>0.831556</v>
       </c>
       <c r="I14">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="J14">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N14">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O14">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P14">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q14">
-        <v>1.590216878269444</v>
+        <v>3.339114781112</v>
       </c>
       <c r="R14">
-        <v>14.311951904425</v>
+        <v>30.052033030008</v>
       </c>
       <c r="S14">
-        <v>0.001692527628862379</v>
+        <v>0.01095784698885098</v>
       </c>
       <c r="T14">
-        <v>0.001692527628862379</v>
+        <v>0.01095784698885098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2080076666666667</v>
+        <v>0.2771853333333333</v>
       </c>
       <c r="H15">
-        <v>0.624023</v>
+        <v>0.831556</v>
       </c>
       <c r="I15">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="J15">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P15">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q15">
-        <v>7.798822155324223</v>
+        <v>10.39249732172178</v>
       </c>
       <c r="R15">
-        <v>70.189399397918</v>
+        <v>93.53247589549599</v>
       </c>
       <c r="S15">
-        <v>0.008300579720191945</v>
+        <v>0.03410466634080379</v>
       </c>
       <c r="T15">
-        <v>0.008300579720191945</v>
+        <v>0.03410466634080379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2080076666666667</v>
+        <v>0.2771853333333333</v>
       </c>
       <c r="H16">
-        <v>0.624023</v>
+        <v>0.831556</v>
       </c>
       <c r="I16">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="J16">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N16">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q16">
-        <v>12.19160003064355</v>
+        <v>14.75666379242489</v>
       </c>
       <c r="R16">
-        <v>109.724400275792</v>
+        <v>132.809974131824</v>
       </c>
       <c r="S16">
-        <v>0.01297597841771073</v>
+        <v>0.04842638678310399</v>
       </c>
       <c r="T16">
-        <v>0.01297597841771073</v>
+        <v>0.04842638678310399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2080076666666667</v>
+        <v>0.2771853333333333</v>
       </c>
       <c r="H17">
-        <v>0.624023</v>
+        <v>0.831556</v>
       </c>
       <c r="I17">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="J17">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N17">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q17">
-        <v>4.256649961969001</v>
+        <v>4.236265581504</v>
       </c>
       <c r="R17">
-        <v>38.309849657721</v>
+        <v>38.126390233536</v>
       </c>
       <c r="S17">
-        <v>0.004530512639803466</v>
+        <v>0.013901992920051</v>
       </c>
       <c r="T17">
-        <v>0.004530512639803466</v>
+        <v>0.013901992920051</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2080076666666667</v>
+        <v>0.2771853333333333</v>
       </c>
       <c r="H18">
-        <v>0.624023</v>
+        <v>0.831556</v>
       </c>
       <c r="I18">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="J18">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N18">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q18">
-        <v>2.447141278459778</v>
+        <v>2.779807166473334</v>
       </c>
       <c r="R18">
-        <v>22.024271506138</v>
+        <v>25.01826449826</v>
       </c>
       <c r="S18">
-        <v>0.002604584495436972</v>
+        <v>0.009122388293157773</v>
       </c>
       <c r="T18">
-        <v>0.002604584495436972</v>
+        <v>0.009122388293157773</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2080076666666667</v>
+        <v>0.2771853333333333</v>
       </c>
       <c r="H19">
-        <v>0.624023</v>
+        <v>0.831556</v>
       </c>
       <c r="I19">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="J19">
-        <v>0.04338152351685497</v>
+        <v>0.1709682028781993</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N19">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O19">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P19">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q19">
-        <v>12.47474533603778</v>
+        <v>16.59370071916089</v>
       </c>
       <c r="R19">
-        <v>112.27270802434</v>
+        <v>149.343306472448</v>
       </c>
       <c r="S19">
-        <v>0.01327734061484948</v>
+        <v>0.05445492155223175</v>
       </c>
       <c r="T19">
-        <v>0.01327734061484948</v>
+        <v>0.05445492155223175</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.339703</v>
+        <v>0.3515676666666667</v>
       </c>
       <c r="H20">
-        <v>10.019109</v>
+        <v>1.054703</v>
       </c>
       <c r="I20">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="J20">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N20">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O20">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P20">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q20">
-        <v>25.53200160414167</v>
+        <v>4.235162005906</v>
       </c>
       <c r="R20">
-        <v>229.788014437275</v>
+        <v>38.116458053154</v>
       </c>
       <c r="S20">
-        <v>0.02717466952193064</v>
+        <v>0.01389837135765011</v>
       </c>
       <c r="T20">
-        <v>0.02717466952193063</v>
+        <v>0.01389837135765011</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.339703</v>
+        <v>0.3515676666666667</v>
       </c>
       <c r="H21">
-        <v>10.019109</v>
+        <v>1.054703</v>
       </c>
       <c r="I21">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="J21">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P21">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q21">
-        <v>125.2153354055993</v>
+        <v>13.18131082297756</v>
       </c>
       <c r="R21">
-        <v>1126.938018650394</v>
+        <v>118.631797406798</v>
       </c>
       <c r="S21">
-        <v>0.1332713906054626</v>
+        <v>0.04325661038299859</v>
       </c>
       <c r="T21">
-        <v>0.1332713906054626</v>
+        <v>0.0432566103829986</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.339703</v>
+        <v>0.3515676666666667</v>
       </c>
       <c r="H22">
-        <v>10.019109</v>
+        <v>1.054703</v>
       </c>
       <c r="I22">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="J22">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N22">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q22">
-        <v>195.7443388968373</v>
+        <v>18.71659584184578</v>
       </c>
       <c r="R22">
-        <v>1761.699050071536</v>
+        <v>168.449362576612</v>
       </c>
       <c r="S22">
-        <v>0.2083380614956361</v>
+        <v>0.0614215463772736</v>
       </c>
       <c r="T22">
-        <v>0.2083380614956361</v>
+        <v>0.06142154637727361</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.339703</v>
+        <v>0.3515676666666667</v>
       </c>
       <c r="H23">
-        <v>10.019109</v>
+        <v>1.054703</v>
       </c>
       <c r="I23">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="J23">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N23">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q23">
-        <v>68.34337827902701</v>
+        <v>5.373062087952</v>
       </c>
       <c r="R23">
-        <v>615.090404511243</v>
+        <v>48.357558791568</v>
       </c>
       <c r="S23">
-        <v>0.07274042777921434</v>
+        <v>0.01763257512272961</v>
       </c>
       <c r="T23">
-        <v>0.07274042777921433</v>
+        <v>0.01763257512272961</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.339703</v>
+        <v>0.3515676666666667</v>
       </c>
       <c r="H24">
-        <v>10.019109</v>
+        <v>1.054703</v>
       </c>
       <c r="I24">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="J24">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N24">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q24">
-        <v>39.29049924007266</v>
+        <v>3.525764900861667</v>
       </c>
       <c r="R24">
-        <v>353.614493160654</v>
+        <v>31.731884107755</v>
       </c>
       <c r="S24">
-        <v>0.04181835598927128</v>
+        <v>0.01157036964432748</v>
       </c>
       <c r="T24">
-        <v>0.04181835598927127</v>
+        <v>0.01157036964432748</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.339703</v>
+        <v>0.3515676666666667</v>
       </c>
       <c r="H25">
-        <v>10.019109</v>
+        <v>1.054703</v>
       </c>
       <c r="I25">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="J25">
-        <v>0.6965195396667003</v>
+        <v>0.2168473037056379</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N25">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O25">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P25">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q25">
-        <v>200.2904272262467</v>
+        <v>21.04659930251378</v>
       </c>
       <c r="R25">
-        <v>1802.61384503622</v>
+        <v>189.419393722624</v>
       </c>
       <c r="S25">
-        <v>0.2131766342751853</v>
+        <v>0.06906783082065848</v>
       </c>
       <c r="T25">
-        <v>0.2131766342751853</v>
+        <v>0.0690678308206585</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2684883333333333</v>
+        <v>0.05828</v>
       </c>
       <c r="H26">
-        <v>0.805465</v>
+        <v>0.17484</v>
       </c>
       <c r="I26">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260288</v>
       </c>
       <c r="J26">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260289</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N26">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O26">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P26">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q26">
-        <v>2.052591070930555</v>
+        <v>0.70207036968</v>
       </c>
       <c r="R26">
-        <v>18.473319638375</v>
+        <v>6.318633327120001</v>
       </c>
       <c r="S26">
-        <v>0.002184649871209292</v>
+        <v>0.002303957842322953</v>
       </c>
       <c r="T26">
-        <v>0.002184649871209292</v>
+        <v>0.002303957842322953</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.2684883333333333</v>
+        <v>0.05828</v>
       </c>
       <c r="H27">
-        <v>0.805465</v>
+        <v>0.17484</v>
       </c>
       <c r="I27">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260288</v>
       </c>
       <c r="J27">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260289</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P27">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q27">
-        <v>10.06642108918778</v>
+        <v>2.185089436826667</v>
       </c>
       <c r="R27">
-        <v>90.59778980269</v>
+        <v>19.66580493144</v>
       </c>
       <c r="S27">
-        <v>0.01071407054599655</v>
+        <v>0.007170725559103818</v>
       </c>
       <c r="T27">
-        <v>0.01071407054599655</v>
+        <v>0.007170725559103819</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.2684883333333333</v>
+        <v>0.05828</v>
       </c>
       <c r="H28">
-        <v>0.805465</v>
+        <v>0.17484</v>
       </c>
       <c r="I28">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260288</v>
       </c>
       <c r="J28">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260289</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N28">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q28">
-        <v>15.73645060948444</v>
+        <v>3.102683520373333</v>
       </c>
       <c r="R28">
-        <v>141.62805548536</v>
+        <v>27.92415168336</v>
       </c>
       <c r="S28">
-        <v>0.01674889620450108</v>
+        <v>0.01018195944128586</v>
       </c>
       <c r="T28">
-        <v>0.01674889620450107</v>
+        <v>0.01018195944128586</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.2684883333333333</v>
+        <v>0.05828</v>
       </c>
       <c r="H29">
-        <v>0.805465</v>
+        <v>0.17484</v>
       </c>
       <c r="I29">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260288</v>
       </c>
       <c r="J29">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260289</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N29">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q29">
-        <v>5.494320820895</v>
+        <v>0.89070209856</v>
       </c>
       <c r="R29">
-        <v>49.448887388055</v>
+        <v>8.016318887040001</v>
       </c>
       <c r="S29">
-        <v>0.005847812281629522</v>
+        <v>0.002922983469714265</v>
       </c>
       <c r="T29">
-        <v>0.005847812281629521</v>
+        <v>0.002922983469714266</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.2684883333333333</v>
+        <v>0.05828</v>
       </c>
       <c r="H30">
-        <v>0.805465</v>
+        <v>0.17484</v>
       </c>
       <c r="I30">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260288</v>
       </c>
       <c r="J30">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260289</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N30">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q30">
-        <v>3.158676282532222</v>
+        <v>0.5844723446000001</v>
       </c>
       <c r="R30">
-        <v>28.42808654278999</v>
+        <v>5.2602511014</v>
       </c>
       <c r="S30">
-        <v>0.003361897959878307</v>
+        <v>0.001918040840515497</v>
       </c>
       <c r="T30">
-        <v>0.003361897959878307</v>
+        <v>0.001918040840515498</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.2684883333333333</v>
+        <v>0.05828</v>
       </c>
       <c r="H31">
-        <v>0.805465</v>
+        <v>0.17484</v>
       </c>
       <c r="I31">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260288</v>
       </c>
       <c r="J31">
-        <v>0.05599520985525148</v>
+        <v>0.03594716482260289</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N31">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O31">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P31">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q31">
-        <v>16.10192373052222</v>
+        <v>3.488932355413334</v>
       </c>
       <c r="R31">
-        <v>144.9173135747</v>
+        <v>31.40039119872</v>
       </c>
       <c r="S31">
-        <v>0.01713788299203673</v>
+        <v>0.01144949766966049</v>
       </c>
       <c r="T31">
-        <v>0.01713788299203673</v>
+        <v>0.01144949766966049</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.14658</v>
+        <v>0.244086</v>
       </c>
       <c r="H32">
-        <v>0.43974</v>
+        <v>0.732258</v>
       </c>
       <c r="I32">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="J32">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N32">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O32">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P32">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q32">
-        <v>1.1206028785</v>
+        <v>2.940383463516</v>
       </c>
       <c r="R32">
-        <v>10.0854259065</v>
+        <v>26.463451171644</v>
       </c>
       <c r="S32">
-        <v>0.00119269978753338</v>
+        <v>0.009649345468449559</v>
       </c>
       <c r="T32">
-        <v>0.00119269978753338</v>
+        <v>0.009649345468449559</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.14658</v>
+        <v>0.244086</v>
       </c>
       <c r="H33">
-        <v>0.43974</v>
+        <v>0.732258</v>
       </c>
       <c r="I33">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="J33">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>112.478866</v>
       </c>
       <c r="O33">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P33">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q33">
-        <v>5.49571739276</v>
+        <v>9.151505495492</v>
       </c>
       <c r="R33">
-        <v>49.46145653484</v>
+        <v>82.363549459428</v>
       </c>
       <c r="S33">
-        <v>0.005849298705588105</v>
+        <v>0.03003215028859668</v>
       </c>
       <c r="T33">
-        <v>0.005849298705588104</v>
+        <v>0.03003215028859668</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.14658</v>
+        <v>0.244086</v>
       </c>
       <c r="H34">
-        <v>0.43974</v>
+        <v>0.732258</v>
       </c>
       <c r="I34">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="J34">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N34">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q34">
-        <v>8.591244549439999</v>
+        <v>12.994536886648</v>
       </c>
       <c r="R34">
-        <v>77.32120094495998</v>
+        <v>116.950831979832</v>
       </c>
       <c r="S34">
-        <v>0.00914398467589194</v>
+        <v>0.0426436814033236</v>
       </c>
       <c r="T34">
-        <v>0.009143984675891939</v>
+        <v>0.0426436814033236</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.14658</v>
+        <v>0.244086</v>
       </c>
       <c r="H35">
-        <v>0.43974</v>
+        <v>0.732258</v>
       </c>
       <c r="I35">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="J35">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N35">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q35">
-        <v>2.99959978122</v>
+        <v>3.730403439072</v>
       </c>
       <c r="R35">
-        <v>26.99639803098</v>
+        <v>33.573630951648</v>
       </c>
       <c r="S35">
-        <v>0.003192586856938248</v>
+        <v>0.01224192421394434</v>
       </c>
       <c r="T35">
-        <v>0.003192586856938247</v>
+        <v>0.01224192421394434</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.14658</v>
+        <v>0.244086</v>
       </c>
       <c r="H36">
-        <v>0.43974</v>
+        <v>0.732258</v>
       </c>
       <c r="I36">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="J36">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N36">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q36">
-        <v>1.72446513316</v>
+        <v>2.44786404777</v>
       </c>
       <c r="R36">
-        <v>15.52018619844</v>
+        <v>22.03077642993</v>
       </c>
       <c r="S36">
-        <v>0.001835413095388237</v>
+        <v>0.008033063085073193</v>
       </c>
       <c r="T36">
-        <v>0.001835413095388237</v>
+        <v>0.008033063085073193</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.14658</v>
+        <v>0.244086</v>
       </c>
       <c r="H37">
-        <v>0.43974</v>
+        <v>0.732258</v>
       </c>
       <c r="I37">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="J37">
-        <v>0.03057033338723381</v>
+        <v>0.1505524995348292</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N37">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O37">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P37">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q37">
-        <v>8.7907729588</v>
+        <v>14.612209040896</v>
       </c>
       <c r="R37">
-        <v>79.1169566292</v>
+        <v>131.509881368064</v>
       </c>
       <c r="S37">
-        <v>0.009356350265893902</v>
+        <v>0.04795233507544185</v>
       </c>
       <c r="T37">
-        <v>0.0093563502658939</v>
+        <v>0.04795233507544185</v>
       </c>
     </row>
   </sheetData>
